--- a/Game of Yards! 2022.xlsx
+++ b/Game of Yards! 2022.xlsx
@@ -10,14 +10,16 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="60">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -49,61 +51,97 @@
     <t>Team HebAchi</t>
   </si>
   <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>2 - 12 - 0</t>
-  </si>
-  <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Place 9</t>
+  </si>
+  <si>
+    <t>Place 10</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑2</t>
@@ -112,10 +150,55 @@
     <t>↓3</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -480,9 +563,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,34 +599,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -554,34 +634,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -589,34 +669,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -624,34 +704,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -659,34 +739,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,34 +774,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,34 +809,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,34 +844,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,34 +879,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -834,34 +914,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -890,7 +970,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -899,12 +979,12 @@
         <v>5.4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -913,12 +993,12 @@
         <v>6.4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -927,12 +1007,12 @@
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -941,12 +1021,12 @@
         <v>6.8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -955,12 +1035,12 @@
         <v>6.8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -969,12 +1049,12 @@
         <v>6.9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -983,12 +1063,12 @@
         <v>7.4</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -997,12 +1077,12 @@
         <v>7.8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1011,12 +1091,12 @@
         <v>7.9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1025,7 +1105,7 @@
         <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1043,13 +1123,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1057,7 +1137,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1069,12 +1149,12 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1086,12 +1166,12 @@
         <v>-0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1103,12 +1183,12 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1120,12 +1200,12 @@
         <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1137,12 +1217,12 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1154,12 +1234,12 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1171,12 +1251,12 @@
         <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1188,12 +1268,12 @@
         <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1205,12 +1285,12 @@
         <v>-0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1222,7 +1302,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1231,6 +1311,437 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30.84</v>
+      </c>
+      <c r="C2">
+        <v>22.09</v>
+      </c>
+      <c r="D2">
+        <v>16.38</v>
+      </c>
+      <c r="E2">
+        <v>11.81</v>
+      </c>
+      <c r="F2">
+        <v>8.98</v>
+      </c>
+      <c r="G2">
+        <v>5.28</v>
+      </c>
+      <c r="H2">
+        <v>3.07</v>
+      </c>
+      <c r="I2">
+        <v>1.13</v>
+      </c>
+      <c r="J2">
+        <v>0.42</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>95.38000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>23.71</v>
+      </c>
+      <c r="C3">
+        <v>20.63</v>
+      </c>
+      <c r="D3">
+        <v>16.34</v>
+      </c>
+      <c r="E3">
+        <v>13.79</v>
+      </c>
+      <c r="F3">
+        <v>10.71</v>
+      </c>
+      <c r="G3">
+        <v>7.470000000000001</v>
+      </c>
+      <c r="H3">
+        <v>4.53</v>
+      </c>
+      <c r="I3">
+        <v>2.06</v>
+      </c>
+      <c r="J3">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.08</v>
+      </c>
+      <c r="L3">
+        <v>92.65000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20.77</v>
+      </c>
+      <c r="C4">
+        <v>21.88</v>
+      </c>
+      <c r="D4">
+        <v>19.08</v>
+      </c>
+      <c r="E4">
+        <v>15.21</v>
+      </c>
+      <c r="F4">
+        <v>10.46</v>
+      </c>
+      <c r="G4">
+        <v>6.73</v>
+      </c>
+      <c r="H4">
+        <v>3.65</v>
+      </c>
+      <c r="I4">
+        <v>1.49</v>
+      </c>
+      <c r="J4">
+        <v>0.65</v>
+      </c>
+      <c r="K4">
+        <v>0.08</v>
+      </c>
+      <c r="L4">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C5">
+        <v>12.13</v>
+      </c>
+      <c r="D5">
+        <v>14.37</v>
+      </c>
+      <c r="E5">
+        <v>15.05</v>
+      </c>
+      <c r="F5">
+        <v>14.62</v>
+      </c>
+      <c r="G5">
+        <v>13.35</v>
+      </c>
+      <c r="H5">
+        <v>10.21</v>
+      </c>
+      <c r="I5">
+        <v>6.79</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.61</v>
+      </c>
+      <c r="L5">
+        <v>79.38999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>7.77</v>
+      </c>
+      <c r="C6">
+        <v>10.43</v>
+      </c>
+      <c r="D6">
+        <v>12.81</v>
+      </c>
+      <c r="E6">
+        <v>14.64</v>
+      </c>
+      <c r="F6">
+        <v>15.01</v>
+      </c>
+      <c r="G6">
+        <v>14.16</v>
+      </c>
+      <c r="H6">
+        <v>11.75</v>
+      </c>
+      <c r="I6">
+        <v>7.920000000000001</v>
+      </c>
+      <c r="J6">
+        <v>4.62</v>
+      </c>
+      <c r="K6">
+        <v>0.89</v>
+      </c>
+      <c r="L6">
+        <v>74.81999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.12</v>
+      </c>
+      <c r="C7">
+        <v>7.430000000000001</v>
+      </c>
+      <c r="D7">
+        <v>11.01</v>
+      </c>
+      <c r="E7">
+        <v>13.62</v>
+      </c>
+      <c r="F7">
+        <v>14.51</v>
+      </c>
+      <c r="G7">
+        <v>15.22</v>
+      </c>
+      <c r="H7">
+        <v>13.68</v>
+      </c>
+      <c r="I7">
+        <v>10.62</v>
+      </c>
+      <c r="J7">
+        <v>6.9</v>
+      </c>
+      <c r="K7">
+        <v>1.89</v>
+      </c>
+      <c r="L7">
+        <v>66.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1.29</v>
+      </c>
+      <c r="C8">
+        <v>3.28</v>
+      </c>
+      <c r="D8">
+        <v>5.29</v>
+      </c>
+      <c r="E8">
+        <v>7.91</v>
+      </c>
+      <c r="F8">
+        <v>11.32</v>
+      </c>
+      <c r="G8">
+        <v>13.87</v>
+      </c>
+      <c r="H8">
+        <v>16.83</v>
+      </c>
+      <c r="I8">
+        <v>17.74</v>
+      </c>
+      <c r="J8">
+        <v>15.88</v>
+      </c>
+      <c r="K8">
+        <v>6.59</v>
+      </c>
+      <c r="L8">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.46</v>
+      </c>
+      <c r="C9">
+        <v>1.37</v>
+      </c>
+      <c r="D9">
+        <v>2.69</v>
+      </c>
+      <c r="E9">
+        <v>4.64</v>
+      </c>
+      <c r="F9">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G9">
+        <v>11.96</v>
+      </c>
+      <c r="H9">
+        <v>16.58</v>
+      </c>
+      <c r="I9">
+        <v>20.66</v>
+      </c>
+      <c r="J9">
+        <v>22.11</v>
+      </c>
+      <c r="K9">
+        <v>11.49</v>
+      </c>
+      <c r="L9">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.17</v>
+      </c>
+      <c r="C10">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3.15</v>
+      </c>
+      <c r="F10">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="G10">
+        <v>10.61</v>
+      </c>
+      <c r="H10">
+        <v>15.98</v>
+      </c>
+      <c r="I10">
+        <v>22.3</v>
+      </c>
+      <c r="J10">
+        <v>23.18</v>
+      </c>
+      <c r="K10">
+        <v>16.01</v>
+      </c>
+      <c r="L10">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.06</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="F11">
+        <v>0.45</v>
+      </c>
+      <c r="G11">
+        <v>1.35</v>
+      </c>
+      <c r="H11">
+        <v>3.72</v>
+      </c>
+      <c r="I11">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="J11">
+        <v>22.56</v>
+      </c>
+      <c r="K11">
+        <v>62.36000000000001</v>
+      </c>
+      <c r="L11">
+        <v>2.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1240,186 +1751,746 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-31</v>
+        <v>-37</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-4</v>
+      </c>
+      <c r="G4">
+        <v>-5</v>
+      </c>
+      <c r="H4">
+        <v>-8</v>
+      </c>
+      <c r="I4">
+        <v>-8</v>
+      </c>
+      <c r="J4">
+        <v>-4</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>-8</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>-4</v>
+      </c>
+      <c r="I7">
+        <v>-7</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>-2</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>-4</v>
+      </c>
+      <c r="I8">
+        <v>-10</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-8</v>
+      </c>
+      <c r="L8">
+        <v>-13</v>
+      </c>
+      <c r="M8">
+        <v>-13</v>
+      </c>
+      <c r="N8">
+        <v>-6</v>
+      </c>
+      <c r="O8">
+        <v>-7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>-4</v>
+      </c>
+      <c r="O9">
+        <v>-10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-12</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-16</v>
+      </c>
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-7</v>
+      </c>
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="M10">
+        <v>-12</v>
+      </c>
+      <c r="N10">
+        <v>-11</v>
+      </c>
+      <c r="O10">
+        <v>-14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11">
+        <v>-16</v>
+      </c>
+      <c r="G11">
+        <v>-14</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11">
+        <v>-20</v>
+      </c>
+      <c r="K11">
+        <v>-24</v>
+      </c>
+      <c r="L11">
+        <v>-26</v>
+      </c>
+      <c r="M11">
+        <v>-34</v>
+      </c>
+      <c r="N11">
+        <v>-36</v>
+      </c>
+      <c r="O11">
+        <v>-37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2022.xlsx
+++ b/Game of Yards! 2022.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="78">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -132,12 +133,45 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Heba I</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
@@ -199,6 +233,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1361,37 +1416,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.84</v>
+        <v>29.83</v>
       </c>
       <c r="C2">
-        <v>22.09</v>
+        <v>22.02</v>
       </c>
       <c r="D2">
-        <v>16.38</v>
+        <v>17.23</v>
       </c>
       <c r="E2">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="F2">
-        <v>8.98</v>
+        <v>8.83</v>
       </c>
       <c r="G2">
-        <v>5.28</v>
+        <v>5.2</v>
       </c>
       <c r="H2">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
       <c r="I2">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="J2">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L2">
-        <v>95.38000000000001</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1399,37 +1454,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>23.71</v>
+        <v>24.12</v>
       </c>
       <c r="C3">
-        <v>20.63</v>
+        <v>19.91</v>
       </c>
       <c r="D3">
-        <v>16.34</v>
+        <v>16.52</v>
       </c>
       <c r="E3">
-        <v>13.79</v>
+        <v>13.81</v>
       </c>
       <c r="F3">
-        <v>10.71</v>
+        <v>10.52</v>
       </c>
       <c r="G3">
-        <v>7.470000000000001</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="H3">
         <v>4.53</v>
       </c>
       <c r="I3">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J3">
-        <v>0.6799999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="K3">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="L3">
-        <v>92.65000000000001</v>
+        <v>92.45999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1437,37 +1492,37 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20.77</v>
+        <v>21.23</v>
       </c>
       <c r="C4">
-        <v>21.88</v>
+        <v>22.44</v>
       </c>
       <c r="D4">
-        <v>19.08</v>
+        <v>18.46</v>
       </c>
       <c r="E4">
-        <v>15.21</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>10.46</v>
+        <v>10.55</v>
       </c>
       <c r="G4">
-        <v>6.73</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="H4">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I4">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="J4">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="K4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="L4">
-        <v>94.13</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1475,37 +1530,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.869999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="C5">
-        <v>12.13</v>
+        <v>12.14</v>
       </c>
       <c r="D5">
-        <v>14.37</v>
+        <v>13.72</v>
       </c>
       <c r="E5">
-        <v>15.05</v>
+        <v>14.63</v>
       </c>
       <c r="F5">
-        <v>14.62</v>
+        <v>15.29</v>
       </c>
       <c r="G5">
-        <v>13.35</v>
+        <v>13.04</v>
       </c>
       <c r="H5">
-        <v>10.21</v>
+        <v>10.35</v>
       </c>
       <c r="I5">
-        <v>6.79</v>
+        <v>6.99</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="K5">
-        <v>0.61</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L5">
-        <v>79.38999999999999</v>
+        <v>78.66</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1513,37 +1568,37 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>7.77</v>
+        <v>8.02</v>
       </c>
       <c r="C6">
-        <v>10.43</v>
+        <v>10.61</v>
       </c>
       <c r="D6">
-        <v>12.81</v>
+        <v>13.25</v>
       </c>
       <c r="E6">
-        <v>14.64</v>
+        <v>14.93</v>
       </c>
       <c r="F6">
-        <v>15.01</v>
+        <v>14.7</v>
       </c>
       <c r="G6">
-        <v>14.16</v>
+        <v>13.89</v>
       </c>
       <c r="H6">
-        <v>11.75</v>
+        <v>11.41</v>
       </c>
       <c r="I6">
-        <v>7.920000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="J6">
-        <v>4.62</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="L6">
-        <v>74.81999999999999</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1551,37 +1606,37 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>5.12</v>
+        <v>4.99</v>
       </c>
       <c r="C7">
-        <v>7.430000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="D7">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="E7">
-        <v>13.62</v>
+        <v>13.01</v>
       </c>
       <c r="F7">
-        <v>14.51</v>
+        <v>14.07</v>
       </c>
       <c r="G7">
-        <v>15.22</v>
+        <v>15.03</v>
       </c>
       <c r="H7">
-        <v>13.68</v>
+        <v>13.91</v>
       </c>
       <c r="I7">
-        <v>10.62</v>
+        <v>10.74</v>
       </c>
       <c r="J7">
-        <v>6.9</v>
+        <v>7.39</v>
       </c>
       <c r="K7">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="L7">
-        <v>66.91</v>
+        <v>66.00999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1589,37 +1644,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="C8">
-        <v>3.28</v>
+        <v>2.86</v>
       </c>
       <c r="D8">
-        <v>5.29</v>
+        <v>5.31</v>
       </c>
       <c r="E8">
-        <v>7.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F8">
-        <v>11.32</v>
+        <v>11.06</v>
       </c>
       <c r="G8">
-        <v>13.87</v>
+        <v>14.99</v>
       </c>
       <c r="H8">
-        <v>16.83</v>
+        <v>16.71</v>
       </c>
       <c r="I8">
-        <v>17.74</v>
+        <v>17.47</v>
       </c>
       <c r="J8">
-        <v>15.88</v>
+        <v>15.53</v>
       </c>
       <c r="K8">
-        <v>6.59</v>
+        <v>6.77</v>
       </c>
       <c r="L8">
-        <v>42.96</v>
+        <v>43.52</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1627,37 +1682,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="D9">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="E9">
-        <v>4.64</v>
+        <v>4.99</v>
       </c>
       <c r="F9">
-        <v>8.039999999999999</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="G9">
-        <v>11.96</v>
+        <v>11.55</v>
       </c>
       <c r="H9">
-        <v>16.58</v>
+        <v>16.53</v>
       </c>
       <c r="I9">
-        <v>20.66</v>
+        <v>20.61</v>
       </c>
       <c r="J9">
-        <v>22.11</v>
+        <v>22.06</v>
       </c>
       <c r="K9">
-        <v>11.49</v>
+        <v>11.23</v>
       </c>
       <c r="L9">
-        <v>29.16</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1665,37 +1720,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C10">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="E10">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="F10">
-        <v>5.899999999999999</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="G10">
-        <v>10.61</v>
+        <v>10.86</v>
       </c>
       <c r="H10">
-        <v>15.98</v>
+        <v>16.13</v>
       </c>
       <c r="I10">
-        <v>22.3</v>
+        <v>21.96</v>
       </c>
       <c r="J10">
-        <v>23.18</v>
+        <v>23.97</v>
       </c>
       <c r="K10">
-        <v>16.01</v>
+        <v>14.71</v>
       </c>
       <c r="L10">
-        <v>22.53</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1706,34 +1761,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="G11">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="H11">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="I11">
-        <v>9.289999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="J11">
-        <v>22.56</v>
+        <v>21.71</v>
       </c>
       <c r="K11">
-        <v>62.36000000000001</v>
+        <v>63.53</v>
       </c>
       <c r="L11">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -1743,13 +1798,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,180 +1812,213 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
         <v>-6</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>-7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>-10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>-14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <v>-37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1948,49 +2036,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2040,7 +2128,7 @@
         <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2090,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2140,7 +2228,7 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2190,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2240,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2290,7 +2378,7 @@
         <v>-6</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2340,7 +2428,7 @@
         <v>-7</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2390,7 +2478,7 @@
         <v>-10</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2440,7 +2528,7 @@
         <v>-14</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2490,7 +2578,251 @@
         <v>-37</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-34</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>-13</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>-37</v>
+      </c>
+      <c r="F4">
+        <v>-14</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2022.xlsx
+++ b/Game of Yards! 2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="85">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,34 +52,43 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>9-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,27 +151,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Heba I</t>
   </si>
   <si>
@@ -172,27 +181,30 @@
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -233,6 +245,15 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -657,31 +678,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -692,31 +713,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -727,31 +748,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -762,31 +783,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -794,34 +815,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -829,34 +850,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -867,31 +888,31 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -899,31 +920,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -934,34 +955,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -969,34 +990,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1014,13 +1035,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1031,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1045,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1059,10 +1080,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1070,13 +1091,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1084,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1098,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1112,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1126,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1140,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1157,10 +1178,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1178,16 +1199,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1198,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="D2">
-        <v>-1.199999999999999</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1212,16 +1233,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D3">
-        <v>-0.6999999999999993</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1229,16 +1250,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
         <v>0.3000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1246,16 +1267,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1263,16 +1284,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>-0.5999999999999996</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1280,16 +1301,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="D7">
-        <v>0.5999999999999996</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1297,16 +1318,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1314,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1334,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="D10">
         <v>-0.4000000000000004</v>
@@ -1351,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="D11">
-        <v>-0.2999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1375,40 +1396,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1416,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.83</v>
+        <v>31.27</v>
       </c>
       <c r="C2">
-        <v>22.02</v>
+        <v>22.32</v>
       </c>
       <c r="D2">
-        <v>17.23</v>
+        <v>16.75</v>
       </c>
       <c r="E2">
-        <v>11.92</v>
+        <v>12.49</v>
       </c>
       <c r="F2">
-        <v>8.83</v>
+        <v>8.01</v>
       </c>
       <c r="G2">
-        <v>5.2</v>
+        <v>5.37</v>
       </c>
       <c r="H2">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="I2">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="J2">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>95.03</v>
+        <v>96.21000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1454,37 +1475,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>24.12</v>
+        <v>24.21</v>
       </c>
       <c r="C3">
-        <v>19.91</v>
+        <v>20.42</v>
       </c>
       <c r="D3">
-        <v>16.52</v>
+        <v>17.22</v>
       </c>
       <c r="E3">
-        <v>13.81</v>
+        <v>13.78</v>
       </c>
       <c r="F3">
-        <v>10.52</v>
+        <v>10.64</v>
       </c>
       <c r="G3">
-        <v>7.580000000000001</v>
+        <v>7.26</v>
       </c>
       <c r="H3">
-        <v>4.53</v>
+        <v>3.91</v>
       </c>
       <c r="I3">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L3">
-        <v>92.45999999999999</v>
+        <v>93.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1492,37 +1513,37 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>21.23</v>
+        <v>21.21</v>
       </c>
       <c r="C4">
-        <v>22.44</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>18.46</v>
+        <v>19.54</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>15.36</v>
       </c>
       <c r="F4">
-        <v>10.55</v>
+        <v>10.23</v>
       </c>
       <c r="G4">
-        <v>6.419999999999999</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="I4">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="J4">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="L4">
-        <v>94.09999999999999</v>
+        <v>94.67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1530,37 +1551,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.84</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5">
-        <v>12.14</v>
+        <v>12.08</v>
       </c>
       <c r="D5">
-        <v>13.72</v>
+        <v>14.49</v>
       </c>
       <c r="E5">
-        <v>14.63</v>
+        <v>14.9</v>
       </c>
       <c r="F5">
-        <v>15.29</v>
+        <v>15.82</v>
       </c>
       <c r="G5">
-        <v>13.04</v>
+        <v>13.47</v>
       </c>
       <c r="H5">
-        <v>10.35</v>
+        <v>9.91</v>
       </c>
       <c r="I5">
-        <v>6.99</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="J5">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="K5">
-        <v>0.5599999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <v>78.66</v>
+        <v>80.22999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1568,37 +1589,37 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>8.02</v>
+        <v>7.53</v>
       </c>
       <c r="C6">
-        <v>10.61</v>
+        <v>10.89</v>
       </c>
       <c r="D6">
-        <v>13.25</v>
+        <v>13.12</v>
       </c>
       <c r="E6">
-        <v>14.93</v>
+        <v>14.97</v>
       </c>
       <c r="F6">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="G6">
-        <v>13.89</v>
+        <v>14.13</v>
       </c>
       <c r="H6">
-        <v>11.41</v>
+        <v>11.56</v>
       </c>
       <c r="I6">
-        <v>7.84</v>
+        <v>7.93</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>3.89</v>
       </c>
       <c r="K6">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>75.40000000000001</v>
+        <v>75.74000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1606,37 +1627,37 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4.99</v>
+        <v>4.64</v>
       </c>
       <c r="C7">
-        <v>7.81</v>
+        <v>7.75</v>
       </c>
       <c r="D7">
-        <v>11.1</v>
+        <v>10.71</v>
       </c>
       <c r="E7">
-        <v>13.01</v>
+        <v>13.4</v>
       </c>
       <c r="F7">
+        <v>14.4</v>
+      </c>
+      <c r="G7">
+        <v>15.21</v>
+      </c>
+      <c r="H7">
         <v>14.07</v>
       </c>
-      <c r="G7">
-        <v>15.03</v>
-      </c>
-      <c r="H7">
-        <v>13.91</v>
-      </c>
       <c r="I7">
-        <v>10.74</v>
+        <v>11.16</v>
       </c>
       <c r="J7">
-        <v>7.39</v>
+        <v>7.07</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="L7">
-        <v>66.00999999999999</v>
+        <v>66.11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1644,37 +1665,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="C8">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>5.31</v>
+        <v>4.41</v>
       </c>
       <c r="E8">
-        <v>8.039999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="F8">
-        <v>11.06</v>
+        <v>11.62</v>
       </c>
       <c r="G8">
-        <v>14.99</v>
+        <v>15.35</v>
       </c>
       <c r="H8">
-        <v>16.71</v>
+        <v>18.12</v>
       </c>
       <c r="I8">
         <v>17.47</v>
       </c>
       <c r="J8">
-        <v>15.53</v>
+        <v>15.77</v>
       </c>
       <c r="K8">
-        <v>6.77</v>
+        <v>5.96</v>
       </c>
       <c r="L8">
-        <v>43.52</v>
+        <v>42.68</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1682,37 +1703,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="C9">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>2.83</v>
+        <v>2.48</v>
       </c>
       <c r="E9">
-        <v>4.99</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="F9">
-        <v>8.290000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="G9">
-        <v>11.55</v>
+        <v>11.92</v>
       </c>
       <c r="H9">
-        <v>16.53</v>
+        <v>16.7</v>
       </c>
       <c r="I9">
-        <v>20.61</v>
+        <v>21.87</v>
       </c>
       <c r="J9">
-        <v>22.06</v>
+        <v>22.11</v>
       </c>
       <c r="K9">
-        <v>11.23</v>
+        <v>11.09</v>
       </c>
       <c r="L9">
-        <v>29.57</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1720,37 +1741,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="E10">
-        <v>3.52</v>
+        <v>2.99</v>
       </c>
       <c r="F10">
-        <v>6.279999999999999</v>
+        <v>5.89</v>
       </c>
       <c r="G10">
-        <v>10.86</v>
+        <v>9.77</v>
       </c>
       <c r="H10">
-        <v>16.13</v>
+        <v>16.51</v>
       </c>
       <c r="I10">
-        <v>21.96</v>
+        <v>22.2</v>
       </c>
       <c r="J10">
-        <v>23.97</v>
+        <v>25.03</v>
       </c>
       <c r="K10">
-        <v>14.71</v>
+        <v>15.43</v>
       </c>
       <c r="L10">
-        <v>23.23</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1761,34 +1782,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="H11">
-        <v>3.73</v>
+        <v>3.48</v>
       </c>
       <c r="I11">
-        <v>9.01</v>
+        <v>8.43</v>
       </c>
       <c r="J11">
-        <v>21.71</v>
+        <v>21.88</v>
       </c>
       <c r="K11">
-        <v>63.53</v>
+        <v>64.44</v>
       </c>
       <c r="L11">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1806,19 +1827,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1826,19 +1847,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1849,16 +1870,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1866,19 +1887,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1886,19 +1907,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1906,19 +1927,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1926,19 +1947,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1946,19 +1967,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1969,16 +1990,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1989,16 +2010,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2009,16 +2030,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>-37</v>
+        <v>-40</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2028,110 +2049,128 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>7</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
       </c>
       <c r="L2">
         <v>13</v>
       </c>
       <c r="M2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2177,261 +2216,315 @@
       <c r="O3">
         <v>17</v>
       </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-4</v>
-      </c>
-      <c r="G4">
-        <v>-5</v>
-      </c>
-      <c r="H4">
-        <v>-8</v>
-      </c>
-      <c r="I4">
-        <v>-8</v>
-      </c>
-      <c r="J4">
-        <v>-4</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>14</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>-5</v>
+      </c>
+      <c r="H5">
+        <v>-8</v>
+      </c>
+      <c r="I5">
+        <v>-8</v>
+      </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>-6</v>
       </c>
       <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>-8</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>-2</v>
       </c>
-      <c r="D6">
+      <c r="O6">
+        <v>-6</v>
+      </c>
+      <c r="P6">
+        <v>-7</v>
+      </c>
+      <c r="Q6">
+        <v>-6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>18</v>
-      </c>
-      <c r="N6">
-        <v>14</v>
-      </c>
-      <c r="O6">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
-      </c>
-      <c r="D7">
-        <v>-8</v>
-      </c>
       <c r="E7">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="H7">
         <v>-4</v>
       </c>
       <c r="I7">
+        <v>-10</v>
+      </c>
+      <c r="J7">
         <v>-7</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>-13</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7">
+        <v>-7</v>
+      </c>
+      <c r="P7">
         <v>-2</v>
       </c>
-      <c r="O7">
-        <v>-6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>-2</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-4</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-4</v>
-      </c>
-      <c r="H8">
-        <v>-4</v>
-      </c>
-      <c r="I8">
-        <v>-10</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-8</v>
-      </c>
-      <c r="L8">
-        <v>-13</v>
-      </c>
-      <c r="M8">
-        <v>-13</v>
-      </c>
-      <c r="N8">
-        <v>-6</v>
-      </c>
-      <c r="O8">
-        <v>-7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8">
+        <v>-2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2477,11 +2570,20 @@
       <c r="O9">
         <v>-10</v>
       </c>
-      <c r="P9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-4</v>
+      </c>
+      <c r="Q9">
+        <v>-8</v>
+      </c>
+      <c r="R9">
+        <v>-2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2527,11 +2629,20 @@
       <c r="O10">
         <v>-14</v>
       </c>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-24</v>
+      </c>
+      <c r="Q10">
+        <v>-18</v>
+      </c>
+      <c r="R10">
+        <v>-19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2577,8 +2688,17 @@
       <c r="O11">
         <v>-37</v>
       </c>
-      <c r="P11" t="s">
-        <v>55</v>
+      <c r="P11">
+        <v>-35</v>
+      </c>
+      <c r="Q11">
+        <v>-31</v>
+      </c>
+      <c r="R11">
+        <v>-40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2708,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2596,25 +2716,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2648,25 +2768,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2674,22 +2794,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>-37</v>
+        <v>-13</v>
       </c>
       <c r="F4">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -2700,25 +2820,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>-4</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2726,25 +2846,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>-37</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2752,25 +2872,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-12</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2778,25 +2898,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2804,25 +2924,51 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2022.xlsx
+++ b/Game of Yards! 2022.xlsx
@@ -3457,7 +3457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,30 +3488,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -3537,27 +3557,45 @@
       <c r="E2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1598.32</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Stiff Armed and Dangerous</t>
         </is>
@@ -3583,27 +3621,45 @@
       <c r="E3" t="n">
         <v>18</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1598.4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Pain Inflictors</t>
         </is>
@@ -3629,21 +3685,37 @@
       <c r="E4" t="n">
         <v>20</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1586.96</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>148.44</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-4</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1453.44</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
@@ -3669,21 +3741,37 @@
       <c r="E5" t="n">
         <v>-7</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1532.28</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Team CTE</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>87.64</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>11</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1520.44</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Wakanda Forever</t>
         </is>
@@ -3709,21 +3797,37 @@
       <c r="E6" t="n">
         <v>20</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1598.32</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wakanda Forever</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>99.45999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>-6</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1532.28</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Stiff Armed and Dangerous</t>
         </is>
@@ -3749,21 +3853,37 @@
       <c r="E7" t="n">
         <v>11</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1598.4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>103.26</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-8</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1453.44</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
@@ -3789,21 +3909,37 @@
       <c r="E8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1598.32</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>149.32</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-2</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1453.44</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Team HebAchi</t>
         </is>
